--- a/ExcelSubjectAddIn/测试工作簿.xlsx
+++ b/ExcelSubjectAddIn/测试工作簿.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="课程学习情况分析" sheetId="12" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="122">
   <si>
     <t>学号</t>
   </si>
@@ -192,6 +192,50 @@
     <t>数据导入工作表</t>
   </si>
   <si>
+    <t>四级通过率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~69分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不及格科目数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译原理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级平均分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级平均绩点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>六级通过率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60分以下</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>班级学习情况</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -205,11 +249,13 @@
   </si>
   <si>
     <t>绩点</t>
+  </si>
+  <si>
+    <t>绩点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>不及格科目数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>总分</t>
@@ -217,6 +263,9 @@
   </si>
   <si>
     <t>平均分</t>
+  </si>
+  <si>
+    <t>平均分</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -228,11 +277,131 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>班级平均分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级平均绩点</t>
+    <t>编译原理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学物理上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学物理下</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>六级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150113577</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>马亦如</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150113579</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿歆杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150113580</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆震庭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150113581</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶俊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150113582</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李宜锟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150113583</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李嘉懿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150113584</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张鑫浩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150113593</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞佳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150113594</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王隽蕾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150113595</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王雨婕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150113596</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>何忆青</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150113597</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶芝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150113598</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王华婷</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -240,23 +409,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>四级通过率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>六级通过率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>2015级计算机科学与技术（师范）</t>
+  </si>
+  <si>
+    <t>课程</t>
+  </si>
+  <si>
+    <t>平均分排名</t>
+  </si>
+  <si>
+    <t>绩点排名</t>
   </si>
   <si>
     <t>课程学习情况</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>60分以下</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~69分</t>
+    <t>课程</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -269,6 +438,14 @@
   </si>
   <si>
     <t>90~100分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不及格率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均分</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -651,17 +828,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -675,37 +852,40 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>74</v>
       </c>
-      <c r="J2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -721,115 +901,177 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>79.84615384615384</v>
+      </c>
+      <c r="I3">
+        <v>90</v>
+      </c>
+      <c r="J3">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>79.307692307692307</v>
+      </c>
+      <c r="I4">
+        <v>97</v>
+      </c>
+      <c r="J4">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="H5">
+        <v>58.46153846153846</v>
+      </c>
+      <c r="I5">
+        <v>83</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="H6">
+        <v>64.769230769230774</v>
+      </c>
+      <c r="I6">
+        <v>84</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="H7">
+        <v>62.53846153846154</v>
+      </c>
+      <c r="I7">
+        <v>74</v>
+      </c>
+      <c r="J7">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9">
+        <v>79</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13">
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="H8">
+        <v>72.307692307692307</v>
+      </c>
+      <c r="I8">
+        <v>86</v>
+      </c>
+      <c r="J8">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -843,12 +1085,710 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>78</v>
+      </c>
+      <c r="D4">
+        <v>93</v>
+      </c>
+      <c r="E4">
+        <v>83</v>
+      </c>
+      <c r="F4">
+        <v>84</v>
+      </c>
+      <c r="G4">
+        <v>74</v>
+      </c>
+      <c r="H4">
+        <v>81</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>82.166666666666671</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2.87</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>82</v>
+      </c>
+      <c r="F5">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>68</v>
+      </c>
+      <c r="H5">
+        <v>74</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>80.5</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2.58</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>78</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>71</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>67</v>
+      </c>
+      <c r="H6">
+        <v>67</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>73</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>79</v>
+      </c>
+      <c r="D7">
+        <v>74</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>74</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <v>80</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>71.833333333333329</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>2.14</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>77</v>
+      </c>
+      <c r="E8">
+        <v>68</v>
+      </c>
+      <c r="F8">
+        <v>68</v>
+      </c>
+      <c r="G8">
+        <v>65</v>
+      </c>
+      <c r="H8">
+        <v>70</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>71</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>2.11</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>78</v>
+      </c>
+      <c r="F9">
+        <v>74</v>
+      </c>
+      <c r="G9">
+        <v>62</v>
+      </c>
+      <c r="H9">
+        <v>86</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>63.333333333333336</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>79</v>
+      </c>
+      <c r="D10">
+        <v>69</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>63</v>
+      </c>
+      <c r="H10">
+        <v>72</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>68.833333333333329</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>2.04</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>78</v>
+      </c>
+      <c r="D11">
+        <v>79</v>
+      </c>
+      <c r="E11">
+        <v>68</v>
+      </c>
+      <c r="F11">
+        <v>62</v>
+      </c>
+      <c r="G11">
+        <v>71</v>
+      </c>
+      <c r="H11">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>71.333333333333329</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>2.02</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>68</v>
+      </c>
+      <c r="G12">
+        <v>65</v>
+      </c>
+      <c r="H12">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>70.833333333333329</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>1.91</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>73</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>71</v>
+      </c>
+      <c r="G13">
+        <v>65</v>
+      </c>
+      <c r="H13">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>72.5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>1.86</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>75</v>
+      </c>
+      <c r="G14">
+        <v>44</v>
+      </c>
+      <c r="H14">
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>44.833333333333336</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>1.73</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>78</v>
+      </c>
+      <c r="D15">
+        <v>71</v>
+      </c>
+      <c r="E15">
+        <v>62</v>
+      </c>
+      <c r="F15">
+        <v>67</v>
+      </c>
+      <c r="G15">
+        <v>42</v>
+      </c>
+      <c r="H15">
+        <v>45</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>60.833333333333336</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <v>1.58</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>61</v>
+      </c>
+      <c r="F16">
+        <v>62</v>
+      </c>
+      <c r="G16">
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>68</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>73</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1.47</v>
+      </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+      <c r="N16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -866,7 +1806,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -880,7 +1820,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>417.23076923076923</v>
@@ -888,7 +1828,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>2.071538461538462</v>
@@ -896,7 +1836,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <v>7.6923076923076927E-2</v>
@@ -904,7 +1844,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -912,7 +1852,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -920,54 +1860,54 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="M7" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N7" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>1.91</v>
@@ -1000,18 +1940,18 @@
         <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N8" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>1.86</v>
@@ -1044,18 +1984,18 @@
         <v>77</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N9" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>2.11</v>
@@ -1088,18 +2028,18 @@
         <v>70</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>2.02</v>
@@ -1132,18 +2072,18 @@
         <v>70</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="N11" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>2.58</v>
@@ -1176,18 +2116,18 @@
         <v>74</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N12" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>1.58</v>
@@ -1220,18 +2160,18 @@
         <v>45</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N13" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>2.14</v>
@@ -1264,18 +2204,18 @@
         <v>80</v>
       </c>
       <c r="M14" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N14" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>1.47</v>
@@ -1308,18 +2248,18 @@
         <v>68</v>
       </c>
       <c r="M15" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N15" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <v>2.87</v>
@@ -1352,18 +2292,18 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C17">
         <v>2.5499999999999998</v>
@@ -1396,18 +2336,18 @@
         <v>67</v>
       </c>
       <c r="M17" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="N17" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C18">
         <v>1.73</v>
@@ -1434,18 +2374,18 @@
         <v>70</v>
       </c>
       <c r="M18" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="N18" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C19">
         <v>2.04</v>
@@ -1478,18 +2418,18 @@
         <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N19" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C20">
         <v>2.0699999999999998</v>
@@ -1519,10 +2459,10 @@
         <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N20" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
